--- a/engine/data/all_engines_for_calibration.xlsx
+++ b/engine/data/all_engines_for_calibration.xlsx
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>JT8D-1/7</t>
+          <t>JT8D-1</t>
         </is>
       </c>
       <c r="B43" t="n">
